--- a/biology/Médecine/Neurologie/Neurologie.xlsx
+++ b/biology/Médecine/Neurologie/Neurologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurologie est la spécialité médicale clinique qui étudie l'ensemble des maladies du système nerveux et en particulier du cerveau. Cette spécialité médicale s'est séparée de la psychiatrie au XIXe siècle avec l'école de Charcot à l'hôpital de la Pitié-Salpêtrière. Le terme de neurologie est introduit dans le vocabulaire médical par le médecin anatomiste anglais Thomas Willis. Le médecin spécialiste pratiquant la neurologie s'appelle le neurologue.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments cliniques en neurologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Divers symptômes, signes cliniques et syndromes neurologiques sont répertoriés dans la catégorie : Sémiologie neurologique. Le tableau ci-dessous en donne quelques exemples.
 </t>
@@ -542,7 +556,9 @@
           <t>Explorations en neurologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Électroencéphalographie (E.E.G)
 Électromyogramme
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,7 +623,9 @@
           <t>Neurologues célèbres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont répertoriés dans la catégorie Neurologue.
 </t>
